--- a/PRODUTOS/Bazar/Bazar - Churrasco.xlsx
+++ b/PRODUTOS/Bazar/Bazar - Churrasco.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Carvao Tudo Em Carnes 4kg</t>
+          <t>Gel Acendedor Zulu Evolution 500g</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 38,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eefe0243-97a5-44fd-b1d5-f9cddcd10ad0.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896090704644</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Carvão São Manoel 4kg</t>
+          <t>Palito Churrasco Festa Ali Bambu Un</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 39,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/302d8a17-2a37-408d-ab30-061c1e7c078c.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7897991607775</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Acedendor Parana Bastao C/5</t>
+          <t>Acendedor P/fogao Aut Use Util</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 9,93</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f86e8f0e-076c-4ddb-8a6e-c462365ebdbe.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/75d4691d-80db-4aa6-87ea-7d0beb6cb718.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896771220128</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Gel Acendedor Zulu Evolution 500g</t>
+          <t>Gel Acendedor 80° Agi Fácil 430g</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eefe0243-97a5-44fd-b1d5-f9cddcd10ad0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce504065-5900-45aa-bf74-c0699e187edf.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7898005495821</t>
         </is>
       </c>
     </row>
@@ -582,6 +607,11 @@
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7898909685526</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -609,6 +639,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b2c18b64-c21c-4b52-b69b-17a27a7262aa.jpg</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7898275016146</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Gel Acendedor 80° Agi Fácil 430g</t>
+          <t>Esponja Ultra Abrasiva Prime Grill</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce504065-5900-45aa-bf74-c0699e187edf.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/174e0342-20ec-484f-a1b8-ba85d163b519.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7898275015132</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Acendedor P/fogao Aut Use Util</t>
+          <t>Garra De Urso Prime Grill</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 9,93</t>
+          <t>R$ 39,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/75d4691d-80db-4aa6-87ea-7d0beb6cb718.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7d92da21-eb33-4224-8395-85a9f26ec398.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7898275014289</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Palito Churrasco Festa Ali Bambu Un</t>
+          <t>Limpa Grelhas Prime Grill 500ml</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 29,98</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cea892f4-edd0-4105-be08-2ed460f2f600.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7898275016146</t>
         </is>
       </c>
     </row>
@@ -704,125 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Esponja Ultra Abrasiva Prime Grill</t>
+          <t>Espuma Magica Air Fryer E Grelha 500ml</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/174e0342-20ec-484f-a1b8-ba85d163b519.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Churrasco</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Limpa Grelhas Prime Grill 500ml</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>R$ 29,98</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cea892f4-edd0-4105-be08-2ed460f2f600.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Churrasco</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Carvão São Manoel 2 Kg</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>R$ 28,99</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Churrasco</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Garra De Urso Prime Grill</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7d92da21-eb33-4224-8395-85a9f26ec398.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Churrasco</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Espuma Magica Air Fryer E Grelha 500ml</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7897520016696</t>
         </is>
       </c>
     </row>
